--- a/app/views/mcp/external/v3/NHS-Pensions-bulk-upload-template-V2.xlsx
+++ b/app/views/mcp/external/v3/NHS-Pensions-bulk-upload-template-V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhsbsauk-my.sharepoint.com/personal/handr_nhsbsa_nhs_uk/Documents/Pensions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{EC9D5A0C-7922-49EE-8B9A-E5A80845AFF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{72499335-2A71-4EAE-860D-DFC96F9933DF}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="8_{EC9D5A0C-7922-49EE-8B9A-E5A80845AFF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8C6559EF-14AA-44F6-B436-86031D88CA06}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2683FF92-75B9-4446-BDE8-CD7A1D7012B6}"/>
+    <workbookView xWindow="-26235" yWindow="885" windowWidth="13845" windowHeight="12975" xr2:uid="{2683FF92-75B9-4446-BDE8-CD7A1D7012B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
   <si>
     <t>EA code</t>
   </si>
@@ -174,12 +174,6 @@
   </si>
   <si>
     <t>EA2938</t>
-  </si>
-  <si>
-    <t>EA5647</t>
-  </si>
-  <si>
-    <t>EA9753</t>
   </si>
 </sst>
 </file>
@@ -230,7 +224,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -246,6 +240,9 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -610,22 +607,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CCC9B-E280-47EC-814C-14DC3A2203C1}">
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="3" max="3" width="8.7265625" style="6"/>
+    <col min="4" max="4" width="13.36328125" style="4" customWidth="1"/>
     <col min="6" max="6" width="12.1796875" customWidth="1"/>
     <col min="7" max="7" width="12.6328125" customWidth="1"/>
     <col min="8" max="8" width="11.453125" customWidth="1"/>
     <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="58" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -667,7 +665,7 @@
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="6">
         <v>2021</v>
       </c>
       <c r="D2" s="5">
@@ -697,7 +695,7 @@
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="6">
         <v>2021</v>
       </c>
       <c r="D3" s="5">
@@ -716,7 +714,7 @@
         <v>150</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K63" si="0">SUM(F3:J3)</f>
+        <f t="shared" ref="K3:K60" si="0">SUM(F3:J3)</f>
         <v>585</v>
       </c>
     </row>
@@ -727,7 +725,7 @@
       <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="6">
         <v>2021</v>
       </c>
       <c r="D4" s="5">
@@ -754,7 +752,7 @@
       <c r="B5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="6">
         <v>2021</v>
       </c>
       <c r="D5" s="5">
@@ -784,7 +782,7 @@
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="6">
         <v>2021</v>
       </c>
       <c r="D6" s="5">
@@ -811,7 +809,7 @@
       <c r="B7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="6">
         <v>2021</v>
       </c>
       <c r="D7" s="5">
@@ -838,7 +836,7 @@
       <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="6">
         <v>2021</v>
       </c>
       <c r="D8" s="5">
@@ -865,7 +863,7 @@
       <c r="B9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="6">
         <v>2021</v>
       </c>
       <c r="D9" s="5">
@@ -895,7 +893,7 @@
       <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <v>2021</v>
       </c>
       <c r="D10" s="5">
@@ -922,7 +920,7 @@
       <c r="B11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="6">
         <v>2021</v>
       </c>
       <c r="D11" s="5">
@@ -952,7 +950,7 @@
       <c r="B12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="6">
         <v>2021</v>
       </c>
       <c r="D12" s="5">
@@ -982,7 +980,7 @@
       <c r="B13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="6">
         <v>2021</v>
       </c>
       <c r="D13" s="5">
@@ -1012,7 +1010,7 @@
       <c r="B14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="6">
         <v>2021</v>
       </c>
       <c r="D14" s="5">
@@ -1039,7 +1037,7 @@
       <c r="B15" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="6">
         <v>2021</v>
       </c>
       <c r="D15" s="5">
@@ -1069,7 +1067,7 @@
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="6">
         <v>2021</v>
       </c>
       <c r="D16" s="5">
@@ -1096,7 +1094,7 @@
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="6">
         <v>2021</v>
       </c>
       <c r="D17" s="5">
@@ -1126,7 +1124,7 @@
       <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="6">
         <v>2021</v>
       </c>
       <c r="D18" s="5">
@@ -1156,7 +1154,7 @@
       <c r="B19" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="6">
         <v>2021</v>
       </c>
       <c r="D19" s="5">
@@ -1183,7 +1181,7 @@
       <c r="B20" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="6">
         <v>2021</v>
       </c>
       <c r="D20" s="5">
@@ -1213,7 +1211,7 @@
       <c r="B21" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="6">
         <v>2021</v>
       </c>
       <c r="D21" s="5">
@@ -1240,7 +1238,7 @@
       <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="6">
         <v>2021</v>
       </c>
       <c r="D22" s="5">
@@ -1270,7 +1268,7 @@
       <c r="B23" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="6">
         <v>2021</v>
       </c>
       <c r="D23" s="5">
@@ -1291,60 +1289,17 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2021</v>
-      </c>
-      <c r="D24" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E24">
-        <v>1000</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="G24">
-        <v>210</v>
-      </c>
-      <c r="H24">
-        <v>165</v>
-      </c>
+      <c r="B24" s="4"/>
+      <c r="D24" s="5"/>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="4">
-        <v>2021</v>
-      </c>
-      <c r="D25" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E25">
-        <v>2000</v>
-      </c>
-      <c r="F25">
-        <v>100</v>
-      </c>
-      <c r="G25">
-        <v>325</v>
-      </c>
       <c r="K25">
         <f t="shared" si="0"/>
-        <v>425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -1553,24 +1508,6 @@
     </row>
     <row r="60" spans="11:11" x14ac:dyDescent="0.35">
       <c r="K60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="11:11" x14ac:dyDescent="0.35">
-      <c r="K63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/app/views/mcp/external/v3/NHS-Pensions-bulk-upload-template-V2.xlsx
+++ b/app/views/mcp/external/v3/NHS-Pensions-bulk-upload-template-V2.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="69" documentId="8_{EC9D5A0C-7922-49EE-8B9A-E5A80845AFF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8C6559EF-14AA-44F6-B436-86031D88CA06}"/>
   <bookViews>
-    <workbookView xWindow="-26235" yWindow="885" windowWidth="13845" windowHeight="12975" xr2:uid="{2683FF92-75B9-4446-BDE8-CD7A1D7012B6}"/>
+    <workbookView xWindow="-17205" yWindow="1890" windowWidth="16605" windowHeight="11685" xr2:uid="{2683FF92-75B9-4446-BDE8-CD7A1D7012B6}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -248,43 +248,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <b/>

--- a/app/views/mcp/external/v3/NHS-Pensions-bulk-upload-template-V2.xlsx
+++ b/app/views/mcp/external/v3/NHS-Pensions-bulk-upload-template-V2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhsbsauk-my.sharepoint.com/personal/handr_nhsbsa_nhs_uk/Documents/Pensions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="8_{EC9D5A0C-7922-49EE-8B9A-E5A80845AFF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8C6559EF-14AA-44F6-B436-86031D88CA06}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{EC9D5A0C-7922-49EE-8B9A-E5A80845AFF4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F09827EA-F376-42DB-A561-DE2DA5296A88}"/>
   <bookViews>
-    <workbookView xWindow="-17205" yWindow="1890" windowWidth="16605" windowHeight="11685" xr2:uid="{2683FF92-75B9-4446-BDE8-CD7A1D7012B6}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2683FF92-75B9-4446-BDE8-CD7A1D7012B6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Blank" sheetId="2" r:id="rId1"/>
+    <sheet name="Template" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,10 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="34">
-  <si>
-    <t>EA code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>Month</t>
   </si>
@@ -174,6 +172,9 @@
   </si>
   <si>
     <t>EA2938</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -248,7 +249,19 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -570,11 +583,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CCC9B-E280-47EC-814C-14DC3A2203C1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF0B91A-5233-4DD8-9446-5B52C4BD18AC}">
   <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -589,670 +602,216 @@
   <sheetData>
     <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D2" s="5">
-        <v>44273</v>
-      </c>
-      <c r="E2">
-        <v>1000</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
-        <v>150</v>
-      </c>
-      <c r="J2">
-        <v>50</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="D2" s="5"/>
       <c r="K2">
         <f>SUM(F2:J2)</f>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D3" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E3">
-        <v>2000</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>335</v>
-      </c>
-      <c r="I3">
-        <v>150</v>
-      </c>
+      <c r="B3" s="4"/>
+      <c r="D3" s="5"/>
       <c r="K3">
         <f t="shared" ref="K3:K60" si="0">SUM(F3:J3)</f>
-        <v>585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D4" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E4">
-        <v>10000</v>
-      </c>
-      <c r="F4">
-        <v>1450</v>
-      </c>
-      <c r="G4">
-        <v>1438</v>
-      </c>
+      <c r="B4" s="4"/>
+      <c r="D4" s="5"/>
       <c r="K4">
         <f t="shared" si="0"/>
-        <v>2888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D5" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E5">
-        <v>8500</v>
-      </c>
-      <c r="F5">
-        <v>1200</v>
-      </c>
-      <c r="G5">
-        <v>1342</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
+      <c r="B5" s="4"/>
+      <c r="D5" s="5"/>
       <c r="K5">
         <f t="shared" si="0"/>
-        <v>2642</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D6" s="5">
-        <v>44273</v>
-      </c>
-      <c r="E6">
-        <v>1000</v>
-      </c>
-      <c r="F6">
-        <v>100</v>
-      </c>
-      <c r="G6">
-        <v>160</v>
-      </c>
+      <c r="B6" s="4"/>
+      <c r="D6" s="5"/>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D7" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E7">
-        <v>2000</v>
-      </c>
-      <c r="F7">
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <v>375</v>
-      </c>
+      <c r="B7" s="4"/>
+      <c r="D7" s="5"/>
       <c r="K7">
         <f t="shared" si="0"/>
-        <v>475</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D8" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E8">
-        <v>10000</v>
-      </c>
-      <c r="F8">
-        <v>1375</v>
-      </c>
-      <c r="G8">
-        <v>1500</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="D8" s="5"/>
       <c r="K8">
         <f t="shared" si="0"/>
-        <v>2875</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D9" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E9">
-        <v>8500</v>
-      </c>
-      <c r="F9">
-        <v>1100</v>
-      </c>
-      <c r="G9">
-        <v>2000</v>
-      </c>
-      <c r="I9">
-        <v>70</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="D9" s="5"/>
       <c r="K9">
         <f t="shared" si="0"/>
-        <v>3170</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D10" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E10">
-        <v>2000</v>
-      </c>
-      <c r="F10">
-        <v>100</v>
-      </c>
-      <c r="G10">
-        <v>350</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="D10" s="5"/>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D11" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E11">
-        <v>10000</v>
-      </c>
-      <c r="F11">
-        <v>1325</v>
-      </c>
-      <c r="G11">
-        <v>1650</v>
-      </c>
-      <c r="J11">
-        <v>50</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="D11" s="5"/>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>3025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D12" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E12">
-        <v>8500</v>
-      </c>
-      <c r="F12">
-        <v>760</v>
-      </c>
-      <c r="G12">
-        <v>1850</v>
-      </c>
-      <c r="I12">
-        <v>210</v>
-      </c>
+      <c r="B12" s="4"/>
+      <c r="D12" s="5"/>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>2820</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D13" s="5">
-        <v>44273</v>
-      </c>
-      <c r="E13">
-        <v>1000</v>
-      </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>200</v>
-      </c>
-      <c r="H13">
-        <v>125</v>
-      </c>
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
       <c r="K13">
         <f t="shared" si="0"/>
-        <v>425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D14" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E14">
-        <v>2000</v>
-      </c>
-      <c r="F14">
-        <v>100</v>
-      </c>
-      <c r="G14">
-        <v>395</v>
-      </c>
+      <c r="B14" s="4"/>
+      <c r="D14" s="5"/>
       <c r="K14">
         <f t="shared" si="0"/>
-        <v>495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D15" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E15">
-        <v>10000</v>
-      </c>
-      <c r="F15">
-        <v>1360</v>
-      </c>
-      <c r="G15">
-        <v>1850</v>
-      </c>
-      <c r="J15">
-        <v>250</v>
-      </c>
+      <c r="B15" s="4"/>
+      <c r="D15" s="5"/>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>3460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D16" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E16">
-        <v>8500</v>
-      </c>
-      <c r="F16">
-        <v>1040</v>
-      </c>
-      <c r="G16">
-        <v>1400</v>
-      </c>
+      <c r="B16" s="4"/>
+      <c r="D16" s="5"/>
       <c r="K16">
         <f t="shared" si="0"/>
-        <v>2440</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D17" s="5">
-        <v>44273</v>
-      </c>
-      <c r="E17">
-        <v>1000</v>
-      </c>
-      <c r="F17">
-        <v>100</v>
-      </c>
-      <c r="G17">
-        <v>160</v>
-      </c>
-      <c r="I17">
-        <v>85</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B17" s="4"/>
+      <c r="D17" s="5"/>
       <c r="K17">
         <f t="shared" si="0"/>
-        <v>345</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D18" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E18">
-        <v>2000</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-      <c r="G18">
-        <v>290</v>
-      </c>
-      <c r="H18">
-        <v>45</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B18" s="4"/>
+      <c r="D18" s="5"/>
       <c r="K18">
         <f t="shared" si="0"/>
-        <v>435</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D19" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E19">
-        <v>10000</v>
-      </c>
-      <c r="F19">
-        <v>1410</v>
-      </c>
-      <c r="G19">
-        <v>1550</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B19" s="4"/>
+      <c r="D19" s="5"/>
       <c r="K19">
         <f t="shared" si="0"/>
-        <v>2960</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D20" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E20">
-        <v>1000</v>
-      </c>
-      <c r="F20">
-        <v>100</v>
-      </c>
-      <c r="G20">
-        <v>180</v>
-      </c>
-      <c r="J20">
-        <v>35</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B20" s="4"/>
+      <c r="D20" s="5"/>
       <c r="K20">
         <f t="shared" si="0"/>
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>31</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D21" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E21">
-        <v>2000</v>
-      </c>
-      <c r="F21">
-        <v>100</v>
-      </c>
-      <c r="G21">
-        <v>295</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B21" s="4"/>
+      <c r="D21" s="5"/>
       <c r="K21">
         <f t="shared" si="0"/>
-        <v>395</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D22" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E22">
-        <v>10000</v>
-      </c>
-      <c r="F22">
-        <v>1330</v>
-      </c>
-      <c r="G22">
-        <v>2000</v>
-      </c>
-      <c r="I22">
-        <v>300</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B22" s="4"/>
+      <c r="D22" s="5"/>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>3630</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="6">
-        <v>2021</v>
-      </c>
-      <c r="D23" s="5">
-        <v>44274</v>
-      </c>
-      <c r="E23">
-        <v>8500</v>
-      </c>
-      <c r="F23">
-        <v>1210</v>
-      </c>
-      <c r="G23">
-        <v>1225</v>
-      </c>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B23" s="4"/>
+      <c r="D23" s="5"/>
       <c r="K23">
         <f t="shared" si="0"/>
-        <v>2435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B24" s="4"/>
       <c r="D24" s="5"/>
       <c r="K24">
@@ -1260,49 +819,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K26">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.35">
       <c r="K32">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1482,4 +1041,919 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E6CCC9B-E280-47EC-814C-14DC3A2203C1}">
+  <dimension ref="A1:K60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="8.7265625" style="6"/>
+    <col min="4" max="4" width="13.36328125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.6328125" customWidth="1"/>
+    <col min="8" max="8" width="11.453125" customWidth="1"/>
+    <col min="9" max="9" width="9.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D2" s="5">
+        <v>44273</v>
+      </c>
+      <c r="E2">
+        <v>1000</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+      <c r="G2">
+        <v>150</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <f>SUM(F2:J2)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D3" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E3">
+        <v>2000</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>335</v>
+      </c>
+      <c r="I3">
+        <v>150</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K60" si="0">SUM(F3:J3)</f>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D4" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E4">
+        <v>10000</v>
+      </c>
+      <c r="F4">
+        <v>1450</v>
+      </c>
+      <c r="G4">
+        <v>1438</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>2888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D5" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E5">
+        <v>8500</v>
+      </c>
+      <c r="F5">
+        <v>1200</v>
+      </c>
+      <c r="G5">
+        <v>1342</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D6" s="5">
+        <v>44273</v>
+      </c>
+      <c r="E6">
+        <v>1000</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>160</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D7" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E7">
+        <v>2000</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>375</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>475</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D8" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E8">
+        <v>10000</v>
+      </c>
+      <c r="F8">
+        <v>1375</v>
+      </c>
+      <c r="G8">
+        <v>1500</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>2875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D9" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E9">
+        <v>8500</v>
+      </c>
+      <c r="F9">
+        <v>1100</v>
+      </c>
+      <c r="G9">
+        <v>2000</v>
+      </c>
+      <c r="I9">
+        <v>70</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D10" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E10">
+        <v>2000</v>
+      </c>
+      <c r="F10">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>350</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E11">
+        <v>10000</v>
+      </c>
+      <c r="F11">
+        <v>1325</v>
+      </c>
+      <c r="G11">
+        <v>1650</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D12" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E12">
+        <v>8500</v>
+      </c>
+      <c r="F12">
+        <v>760</v>
+      </c>
+      <c r="G12">
+        <v>1850</v>
+      </c>
+      <c r="I12">
+        <v>210</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D13" s="5">
+        <v>44273</v>
+      </c>
+      <c r="E13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>200</v>
+      </c>
+      <c r="H13">
+        <v>125</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E14">
+        <v>2000</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>395</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>495</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D15" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E15">
+        <v>10000</v>
+      </c>
+      <c r="F15">
+        <v>1360</v>
+      </c>
+      <c r="G15">
+        <v>1850</v>
+      </c>
+      <c r="J15">
+        <v>250</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D16" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E16">
+        <v>8500</v>
+      </c>
+      <c r="F16">
+        <v>1040</v>
+      </c>
+      <c r="G16">
+        <v>1400</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D17" s="5">
+        <v>44273</v>
+      </c>
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>160</v>
+      </c>
+      <c r="I17">
+        <v>85</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D18" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E18">
+        <v>2000</v>
+      </c>
+      <c r="F18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>290</v>
+      </c>
+      <c r="H18">
+        <v>45</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D19" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E19">
+        <v>10000</v>
+      </c>
+      <c r="F19">
+        <v>1410</v>
+      </c>
+      <c r="G19">
+        <v>1550</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>2960</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D20" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E20">
+        <v>1000</v>
+      </c>
+      <c r="F20">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>180</v>
+      </c>
+      <c r="J20">
+        <v>35</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D21" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E21">
+        <v>2000</v>
+      </c>
+      <c r="F21">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>295</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>395</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D22" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E22">
+        <v>10000</v>
+      </c>
+      <c r="F22">
+        <v>1330</v>
+      </c>
+      <c r="G22">
+        <v>2000</v>
+      </c>
+      <c r="I22">
+        <v>300</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="6">
+        <v>2021</v>
+      </c>
+      <c r="D23" s="5">
+        <v>44274</v>
+      </c>
+      <c r="E23">
+        <v>8500</v>
+      </c>
+      <c r="F23">
+        <v>1210</v>
+      </c>
+      <c r="G23">
+        <v>1225</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>2435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B24" s="4"/>
+      <c r="D24" s="5"/>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="11:11" x14ac:dyDescent="0.35">
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A1048576">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>